--- a/feature_analysis/Jupiter Notebooks/pre_df.xlsx
+++ b/feature_analysis/Jupiter Notebooks/pre_df.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:GW2"/>
+  <dimension ref="A1:GX2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,1193 +436,1198 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>reactions_weighted_YTA</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>reactions_weighted_NTA</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>reactions_weighted_INFO</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>reactions_weighted_ESH</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>reactions_weighted_NAH</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>reactions_weighted_YTA_neg_vals</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>reactions_weighted_NTA_neg_vals</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>reactions_weighted_INFO_neg_vals</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>reactions_weighted_ESH_neg_vals</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>reactions_weighted_NAH_neg_vals</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>post_id</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
           <t>speaker_author_age</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>speaker_author_gender</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>writing_sty_!_count</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>writing_sty_"_count</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>writing_sty_?_count</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>writing_sty_negative_norm</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>writing_sty_trust_norm</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>writing_sty_joy_norm</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>writing_sty_positive_norm</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>writing_sty_fear_norm</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>writing_sty_anger_norm</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>writing_sty_disgust_norm</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>writing_sty_surprise_norm</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>writing_sty_sadness_norm</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>writing_sty_anticipation_norm</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>writing_sty_aita_count</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>writing_sty_aita_avg_location</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>writing_sty_aita_fst_location</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>writing_sty_aita_lst_location</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>writing_sty_profanity_norm</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>writing_sty_is_wibta</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>post_id</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>writing_sty_past_norm</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>writing_sty_present_norm</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>writing_sty_future_norm</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>writing_sty_active_norm</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>writing_sty_passive_norm</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>writing_sty_sent_polarity</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>writing_sty_sent_subjectivity</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>writing_sty_focus_i_subj_norm</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>writing_sty_focus_you_sg_subj_norm</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>writing_sty_focus_he_subj_norm</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AR1" s="1" t="inlineStr">
         <is>
           <t>writing_sty_focus_we_subj_norm</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AS1" s="1" t="inlineStr">
         <is>
           <t>writing_sty_focus_you_pl_subj_norm</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AT1" s="1" t="inlineStr">
         <is>
           <t>writing_sty_focus_they_subj_norm</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AU1" s="1" t="inlineStr">
         <is>
           <t>writing_sty_focus_i_obj_norm</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AV1" s="1" t="inlineStr">
         <is>
           <t>writing_sty_focus_you_sg_obj_norm</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AW1" s="1" t="inlineStr">
         <is>
           <t>writing_sty_focus_he_obj_norm</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AX1" s="1" t="inlineStr">
         <is>
           <t>writing_sty_focus_we_obj_norm</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AY1" s="1" t="inlineStr">
         <is>
           <t>writing_sty_focus_you_pl_obj_norm</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="AZ1" s="1" t="inlineStr">
         <is>
           <t>writing_sty_focus_they_obj_norm</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
+      <c r="BA1" s="1" t="inlineStr">
         <is>
           <t>writing_sty_focus_i_poss_norm</t>
         </is>
       </c>
-      <c r="AR1" s="1" t="inlineStr">
+      <c r="BB1" s="1" t="inlineStr">
         <is>
           <t>writing_sty_focus_you_sg_poss_norm</t>
         </is>
       </c>
-      <c r="AS1" s="1" t="inlineStr">
+      <c r="BC1" s="1" t="inlineStr">
         <is>
           <t>writing_sty_focus_he_poss_norm</t>
         </is>
       </c>
-      <c r="AT1" s="1" t="inlineStr">
+      <c r="BD1" s="1" t="inlineStr">
         <is>
           <t>writing_sty_focus_we_poss_norm</t>
         </is>
       </c>
-      <c r="AU1" s="1" t="inlineStr">
+      <c r="BE1" s="1" t="inlineStr">
         <is>
           <t>writing_sty_focus_you_pl_poss_norm</t>
         </is>
       </c>
-      <c r="AV1" s="1" t="inlineStr">
+      <c r="BF1" s="1" t="inlineStr">
         <is>
           <t>writing_sty_focus_they_poss_norm</t>
         </is>
       </c>
-      <c r="AW1" s="1" t="inlineStr">
+      <c r="BG1" s="1" t="inlineStr">
         <is>
           <t>writing_sty_self_fear_norm</t>
         </is>
       </c>
-      <c r="AX1" s="1" t="inlineStr">
+      <c r="BH1" s="1" t="inlineStr">
         <is>
           <t>writing_sty_self_anger_norm</t>
         </is>
       </c>
-      <c r="AY1" s="1" t="inlineStr">
+      <c r="BI1" s="1" t="inlineStr">
         <is>
           <t>writing_sty_self_trust_norm</t>
         </is>
       </c>
-      <c r="AZ1" s="1" t="inlineStr">
+      <c r="BJ1" s="1" t="inlineStr">
         <is>
           <t>writing_sty_self_surprise_norm</t>
         </is>
       </c>
-      <c r="BA1" s="1" t="inlineStr">
+      <c r="BK1" s="1" t="inlineStr">
         <is>
           <t>writing_sty_self_sadness_norm</t>
         </is>
       </c>
-      <c r="BB1" s="1" t="inlineStr">
+      <c r="BL1" s="1" t="inlineStr">
         <is>
           <t>writing_sty_self_disgust_norm</t>
         </is>
       </c>
-      <c r="BC1" s="1" t="inlineStr">
+      <c r="BM1" s="1" t="inlineStr">
         <is>
           <t>writing_sty_self_joy_norm</t>
         </is>
       </c>
-      <c r="BD1" s="1" t="inlineStr">
+      <c r="BN1" s="1" t="inlineStr">
         <is>
           <t>writing_sty_self_anticipation_norm</t>
         </is>
       </c>
-      <c r="BE1" s="1" t="inlineStr">
+      <c r="BO1" s="1" t="inlineStr">
         <is>
           <t>writing_sty_self_positive_norm</t>
         </is>
       </c>
-      <c r="BF1" s="1" t="inlineStr">
+      <c r="BP1" s="1" t="inlineStr">
         <is>
           <t>writing_sty_self_negative_norm</t>
         </is>
       </c>
-      <c r="BG1" s="1" t="inlineStr">
+      <c r="BQ1" s="1" t="inlineStr">
         <is>
           <t>writing_sty_other_fear_norm</t>
         </is>
       </c>
-      <c r="BH1" s="1" t="inlineStr">
+      <c r="BR1" s="1" t="inlineStr">
         <is>
           <t>writing_sty_other_anger_norm</t>
         </is>
       </c>
-      <c r="BI1" s="1" t="inlineStr">
+      <c r="BS1" s="1" t="inlineStr">
         <is>
           <t>writing_sty_other_trust_norm</t>
         </is>
       </c>
-      <c r="BJ1" s="1" t="inlineStr">
+      <c r="BT1" s="1" t="inlineStr">
         <is>
           <t>writing_sty_other_surprise_norm</t>
         </is>
       </c>
-      <c r="BK1" s="1" t="inlineStr">
+      <c r="BU1" s="1" t="inlineStr">
         <is>
           <t>writing_sty_other_sadness_norm</t>
         </is>
       </c>
-      <c r="BL1" s="1" t="inlineStr">
+      <c r="BV1" s="1" t="inlineStr">
         <is>
           <t>writing_sty_other_disgust_norm</t>
         </is>
       </c>
-      <c r="BM1" s="1" t="inlineStr">
+      <c r="BW1" s="1" t="inlineStr">
         <is>
           <t>writing_sty_other_joy_norm</t>
         </is>
       </c>
-      <c r="BN1" s="1" t="inlineStr">
+      <c r="BX1" s="1" t="inlineStr">
         <is>
           <t>writing_sty_other_anticipation_norm</t>
         </is>
       </c>
-      <c r="BO1" s="1" t="inlineStr">
+      <c r="BY1" s="1" t="inlineStr">
         <is>
           <t>writing_sty_other_positive_norm</t>
         </is>
       </c>
-      <c r="BP1" s="1" t="inlineStr">
+      <c r="BZ1" s="1" t="inlineStr">
         <is>
           <t>writing_sty_other_negative_norm</t>
         </is>
       </c>
-      <c r="BQ1" s="1" t="inlineStr">
+      <c r="CA1" s="1" t="inlineStr">
         <is>
           <t>writing_sty_self_prof</t>
         </is>
       </c>
-      <c r="BR1" s="1" t="inlineStr">
+      <c r="CB1" s="1" t="inlineStr">
         <is>
           <t>writing_sty_other_prof</t>
         </is>
       </c>
-      <c r="BS1" s="1" t="inlineStr">
+      <c r="CC1" s="1" t="inlineStr">
         <is>
           <t>foundations_WC</t>
         </is>
       </c>
-      <c r="BT1" s="1" t="inlineStr">
+      <c r="CD1" s="1" t="inlineStr">
         <is>
           <t>foundations_WPS</t>
         </is>
       </c>
-      <c r="BU1" s="1" t="inlineStr">
+      <c r="CE1" s="1" t="inlineStr">
         <is>
           <t>foundations_Sixltr</t>
         </is>
       </c>
-      <c r="BV1" s="1" t="inlineStr">
+      <c r="CF1" s="1" t="inlineStr">
         <is>
           <t>foundations_Dic</t>
         </is>
       </c>
-      <c r="BW1" s="1" t="inlineStr">
+      <c r="CG1" s="1" t="inlineStr">
         <is>
           <t>foundations_01                    HarmVirtue</t>
         </is>
       </c>
-      <c r="BX1" s="1" t="inlineStr">
+      <c r="CH1" s="1" t="inlineStr">
         <is>
           <t>foundations_02                    HarmVice</t>
         </is>
       </c>
-      <c r="BY1" s="1" t="inlineStr">
+      <c r="CI1" s="1" t="inlineStr">
         <is>
           <t>foundations_03                    FairnessVirtue</t>
         </is>
       </c>
-      <c r="BZ1" s="1" t="inlineStr">
+      <c r="CJ1" s="1" t="inlineStr">
         <is>
           <t>foundations_04                    FairnessVice</t>
         </is>
       </c>
-      <c r="CA1" s="1" t="inlineStr">
+      <c r="CK1" s="1" t="inlineStr">
         <is>
           <t>foundations_05                    IngroupVirtue</t>
         </is>
       </c>
-      <c r="CB1" s="1" t="inlineStr">
+      <c r="CL1" s="1" t="inlineStr">
         <is>
           <t>foundations_06                    IngroupVice</t>
         </is>
       </c>
-      <c r="CC1" s="1" t="inlineStr">
+      <c r="CM1" s="1" t="inlineStr">
         <is>
           <t>foundations_07                    AuthorityVirtue</t>
         </is>
       </c>
-      <c r="CD1" s="1" t="inlineStr">
+      <c r="CN1" s="1" t="inlineStr">
         <is>
           <t>foundations_08                    AuthorityVice</t>
         </is>
       </c>
-      <c r="CE1" s="1" t="inlineStr">
+      <c r="CO1" s="1" t="inlineStr">
         <is>
           <t>foundations_09                    PurityVirtue</t>
         </is>
       </c>
-      <c r="CF1" s="1" t="inlineStr">
+      <c r="CP1" s="1" t="inlineStr">
         <is>
           <t>foundations_10                    PurityVice</t>
         </is>
       </c>
-      <c r="CG1" s="1" t="inlineStr">
+      <c r="CQ1" s="1" t="inlineStr">
         <is>
           <t>foundations_11                    MoralityGeneral</t>
         </is>
       </c>
-      <c r="CH1" s="1" t="inlineStr">
+      <c r="CR1" s="1" t="inlineStr">
         <is>
           <t>foundations_AllPunc</t>
         </is>
       </c>
-      <c r="CI1" s="1" t="inlineStr">
+      <c r="CS1" s="1" t="inlineStr">
         <is>
           <t>foundations_Period</t>
         </is>
       </c>
-      <c r="CJ1" s="1" t="inlineStr">
+      <c r="CT1" s="1" t="inlineStr">
         <is>
           <t>foundations_Comma</t>
         </is>
       </c>
-      <c r="CK1" s="1" t="inlineStr">
+      <c r="CU1" s="1" t="inlineStr">
         <is>
           <t>foundations_Colon</t>
         </is>
       </c>
-      <c r="CL1" s="1" t="inlineStr">
+      <c r="CV1" s="1" t="inlineStr">
         <is>
           <t>foundations_SemiC</t>
         </is>
       </c>
-      <c r="CM1" s="1" t="inlineStr">
+      <c r="CW1" s="1" t="inlineStr">
         <is>
           <t>foundations_QMark</t>
         </is>
       </c>
-      <c r="CN1" s="1" t="inlineStr">
+      <c r="CX1" s="1" t="inlineStr">
         <is>
           <t>foundations_Exclam</t>
         </is>
       </c>
-      <c r="CO1" s="1" t="inlineStr">
+      <c r="CY1" s="1" t="inlineStr">
         <is>
           <t>foundations_Dash</t>
         </is>
       </c>
-      <c r="CP1" s="1" t="inlineStr">
+      <c r="CZ1" s="1" t="inlineStr">
         <is>
           <t>foundations_Quote</t>
         </is>
       </c>
-      <c r="CQ1" s="1" t="inlineStr">
+      <c r="DA1" s="1" t="inlineStr">
         <is>
           <t>foundations_Apostro</t>
         </is>
       </c>
-      <c r="CR1" s="1" t="inlineStr">
+      <c r="DB1" s="1" t="inlineStr">
         <is>
           <t>foundations_Parenth</t>
         </is>
       </c>
-      <c r="CS1" s="1" t="inlineStr">
+      <c r="DC1" s="1" t="inlineStr">
         <is>
           <t>foundations_OtherP</t>
         </is>
       </c>
-      <c r="CT1" s="1" t="inlineStr">
+      <c r="DD1" s="1" t="inlineStr">
         <is>
           <t>liwc_WC</t>
         </is>
       </c>
-      <c r="CU1" s="1" t="inlineStr">
+      <c r="DE1" s="1" t="inlineStr">
         <is>
           <t>liwc_Analytic</t>
         </is>
       </c>
-      <c r="CV1" s="1" t="inlineStr">
+      <c r="DF1" s="1" t="inlineStr">
         <is>
           <t>liwc_Clout</t>
         </is>
       </c>
-      <c r="CW1" s="1" t="inlineStr">
+      <c r="DG1" s="1" t="inlineStr">
         <is>
           <t>liwc_Authentic</t>
         </is>
       </c>
-      <c r="CX1" s="1" t="inlineStr">
+      <c r="DH1" s="1" t="inlineStr">
         <is>
           <t>liwc_Tone</t>
         </is>
       </c>
-      <c r="CY1" s="1" t="inlineStr">
+      <c r="DI1" s="1" t="inlineStr">
         <is>
           <t>liwc_WPS</t>
         </is>
       </c>
-      <c r="CZ1" s="1" t="inlineStr">
+      <c r="DJ1" s="1" t="inlineStr">
         <is>
           <t>liwc_Sixltr</t>
         </is>
       </c>
-      <c r="DA1" s="1" t="inlineStr">
+      <c r="DK1" s="1" t="inlineStr">
         <is>
           <t>liwc_Dic</t>
         </is>
       </c>
-      <c r="DB1" s="1" t="inlineStr">
+      <c r="DL1" s="1" t="inlineStr">
         <is>
           <t>liwc_function</t>
         </is>
       </c>
-      <c r="DC1" s="1" t="inlineStr">
+      <c r="DM1" s="1" t="inlineStr">
         <is>
           <t>liwc_pronoun</t>
         </is>
       </c>
-      <c r="DD1" s="1" t="inlineStr">
+      <c r="DN1" s="1" t="inlineStr">
         <is>
           <t>liwc_ppron</t>
         </is>
       </c>
-      <c r="DE1" s="1" t="inlineStr">
+      <c r="DO1" s="1" t="inlineStr">
         <is>
           <t>liwc_i</t>
         </is>
       </c>
-      <c r="DF1" s="1" t="inlineStr">
+      <c r="DP1" s="1" t="inlineStr">
         <is>
           <t>liwc_we</t>
         </is>
       </c>
-      <c r="DG1" s="1" t="inlineStr">
+      <c r="DQ1" s="1" t="inlineStr">
         <is>
           <t>liwc_you</t>
         </is>
       </c>
-      <c r="DH1" s="1" t="inlineStr">
+      <c r="DR1" s="1" t="inlineStr">
         <is>
           <t>liwc_shehe</t>
         </is>
       </c>
-      <c r="DI1" s="1" t="inlineStr">
+      <c r="DS1" s="1" t="inlineStr">
         <is>
           <t>liwc_they</t>
         </is>
       </c>
-      <c r="DJ1" s="1" t="inlineStr">
+      <c r="DT1" s="1" t="inlineStr">
         <is>
           <t>liwc_ipron</t>
         </is>
       </c>
-      <c r="DK1" s="1" t="inlineStr">
+      <c r="DU1" s="1" t="inlineStr">
         <is>
           <t>liwc_article</t>
         </is>
       </c>
-      <c r="DL1" s="1" t="inlineStr">
+      <c r="DV1" s="1" t="inlineStr">
         <is>
           <t>liwc_prep</t>
         </is>
       </c>
-      <c r="DM1" s="1" t="inlineStr">
+      <c r="DW1" s="1" t="inlineStr">
         <is>
           <t>liwc_auxverb</t>
         </is>
       </c>
-      <c r="DN1" s="1" t="inlineStr">
+      <c r="DX1" s="1" t="inlineStr">
         <is>
           <t>liwc_adverb</t>
         </is>
       </c>
-      <c r="DO1" s="1" t="inlineStr">
+      <c r="DY1" s="1" t="inlineStr">
         <is>
           <t>liwc_conj</t>
         </is>
       </c>
-      <c r="DP1" s="1" t="inlineStr">
+      <c r="DZ1" s="1" t="inlineStr">
         <is>
           <t>liwc_negate</t>
         </is>
       </c>
-      <c r="DQ1" s="1" t="inlineStr">
+      <c r="EA1" s="1" t="inlineStr">
         <is>
           <t>liwc_verb</t>
         </is>
       </c>
-      <c r="DR1" s="1" t="inlineStr">
+      <c r="EB1" s="1" t="inlineStr">
         <is>
           <t>liwc_adj</t>
         </is>
       </c>
-      <c r="DS1" s="1" t="inlineStr">
+      <c r="EC1" s="1" t="inlineStr">
         <is>
           <t>liwc_compare</t>
         </is>
       </c>
-      <c r="DT1" s="1" t="inlineStr">
+      <c r="ED1" s="1" t="inlineStr">
         <is>
           <t>liwc_interrog</t>
         </is>
       </c>
-      <c r="DU1" s="1" t="inlineStr">
+      <c r="EE1" s="1" t="inlineStr">
         <is>
           <t>liwc_number</t>
         </is>
       </c>
-      <c r="DV1" s="1" t="inlineStr">
+      <c r="EF1" s="1" t="inlineStr">
         <is>
           <t>liwc_quant</t>
         </is>
       </c>
-      <c r="DW1" s="1" t="inlineStr">
+      <c r="EG1" s="1" t="inlineStr">
         <is>
           <t>liwc_affect</t>
         </is>
       </c>
-      <c r="DX1" s="1" t="inlineStr">
+      <c r="EH1" s="1" t="inlineStr">
         <is>
           <t>liwc_posemo</t>
         </is>
       </c>
-      <c r="DY1" s="1" t="inlineStr">
+      <c r="EI1" s="1" t="inlineStr">
         <is>
           <t>liwc_negemo</t>
         </is>
       </c>
-      <c r="DZ1" s="1" t="inlineStr">
+      <c r="EJ1" s="1" t="inlineStr">
         <is>
           <t>liwc_anx</t>
         </is>
       </c>
-      <c r="EA1" s="1" t="inlineStr">
+      <c r="EK1" s="1" t="inlineStr">
         <is>
           <t>liwc_anger</t>
         </is>
       </c>
-      <c r="EB1" s="1" t="inlineStr">
+      <c r="EL1" s="1" t="inlineStr">
         <is>
           <t>liwc_sad</t>
         </is>
       </c>
-      <c r="EC1" s="1" t="inlineStr">
+      <c r="EM1" s="1" t="inlineStr">
         <is>
           <t>liwc_social</t>
         </is>
       </c>
-      <c r="ED1" s="1" t="inlineStr">
+      <c r="EN1" s="1" t="inlineStr">
         <is>
           <t>liwc_family</t>
         </is>
       </c>
-      <c r="EE1" s="1" t="inlineStr">
+      <c r="EO1" s="1" t="inlineStr">
         <is>
           <t>liwc_friend</t>
         </is>
       </c>
-      <c r="EF1" s="1" t="inlineStr">
+      <c r="EP1" s="1" t="inlineStr">
         <is>
           <t>liwc_female</t>
         </is>
       </c>
-      <c r="EG1" s="1" t="inlineStr">
+      <c r="EQ1" s="1" t="inlineStr">
         <is>
           <t>liwc_male</t>
         </is>
       </c>
-      <c r="EH1" s="1" t="inlineStr">
+      <c r="ER1" s="1" t="inlineStr">
         <is>
           <t>liwc_cogproc</t>
         </is>
       </c>
-      <c r="EI1" s="1" t="inlineStr">
+      <c r="ES1" s="1" t="inlineStr">
         <is>
           <t>liwc_insight</t>
         </is>
       </c>
-      <c r="EJ1" s="1" t="inlineStr">
+      <c r="ET1" s="1" t="inlineStr">
         <is>
           <t>liwc_cause</t>
         </is>
       </c>
-      <c r="EK1" s="1" t="inlineStr">
+      <c r="EU1" s="1" t="inlineStr">
         <is>
           <t>liwc_discrep</t>
         </is>
       </c>
-      <c r="EL1" s="1" t="inlineStr">
+      <c r="EV1" s="1" t="inlineStr">
         <is>
           <t>liwc_tentat</t>
         </is>
       </c>
-      <c r="EM1" s="1" t="inlineStr">
+      <c r="EW1" s="1" t="inlineStr">
         <is>
           <t>liwc_certain</t>
         </is>
       </c>
-      <c r="EN1" s="1" t="inlineStr">
+      <c r="EX1" s="1" t="inlineStr">
         <is>
           <t>liwc_differ</t>
         </is>
       </c>
-      <c r="EO1" s="1" t="inlineStr">
+      <c r="EY1" s="1" t="inlineStr">
         <is>
           <t>liwc_percept</t>
         </is>
       </c>
-      <c r="EP1" s="1" t="inlineStr">
+      <c r="EZ1" s="1" t="inlineStr">
         <is>
           <t>liwc_see</t>
         </is>
       </c>
-      <c r="EQ1" s="1" t="inlineStr">
+      <c r="FA1" s="1" t="inlineStr">
         <is>
           <t>liwc_hear</t>
         </is>
       </c>
-      <c r="ER1" s="1" t="inlineStr">
+      <c r="FB1" s="1" t="inlineStr">
         <is>
           <t>liwc_feel</t>
         </is>
       </c>
-      <c r="ES1" s="1" t="inlineStr">
+      <c r="FC1" s="1" t="inlineStr">
         <is>
           <t>liwc_bio</t>
         </is>
       </c>
-      <c r="ET1" s="1" t="inlineStr">
+      <c r="FD1" s="1" t="inlineStr">
         <is>
           <t>liwc_body</t>
         </is>
       </c>
-      <c r="EU1" s="1" t="inlineStr">
+      <c r="FE1" s="1" t="inlineStr">
         <is>
           <t>liwc_health</t>
         </is>
       </c>
-      <c r="EV1" s="1" t="inlineStr">
+      <c r="FF1" s="1" t="inlineStr">
         <is>
           <t>liwc_sexual</t>
         </is>
       </c>
-      <c r="EW1" s="1" t="inlineStr">
+      <c r="FG1" s="1" t="inlineStr">
         <is>
           <t>liwc_ingest</t>
         </is>
       </c>
-      <c r="EX1" s="1" t="inlineStr">
+      <c r="FH1" s="1" t="inlineStr">
         <is>
           <t>liwc_drives</t>
         </is>
       </c>
-      <c r="EY1" s="1" t="inlineStr">
+      <c r="FI1" s="1" t="inlineStr">
         <is>
           <t>liwc_affiliation</t>
         </is>
       </c>
-      <c r="EZ1" s="1" t="inlineStr">
+      <c r="FJ1" s="1" t="inlineStr">
         <is>
           <t>liwc_achieve</t>
         </is>
       </c>
-      <c r="FA1" s="1" t="inlineStr">
+      <c r="FK1" s="1" t="inlineStr">
         <is>
           <t>liwc_power</t>
         </is>
       </c>
-      <c r="FB1" s="1" t="inlineStr">
+      <c r="FL1" s="1" t="inlineStr">
         <is>
           <t>liwc_reward</t>
         </is>
       </c>
-      <c r="FC1" s="1" t="inlineStr">
+      <c r="FM1" s="1" t="inlineStr">
         <is>
           <t>liwc_risk</t>
         </is>
       </c>
-      <c r="FD1" s="1" t="inlineStr">
+      <c r="FN1" s="1" t="inlineStr">
         <is>
           <t>liwc_focuspast</t>
         </is>
       </c>
-      <c r="FE1" s="1" t="inlineStr">
+      <c r="FO1" s="1" t="inlineStr">
         <is>
           <t>liwc_focuspresent</t>
         </is>
       </c>
-      <c r="FF1" s="1" t="inlineStr">
+      <c r="FP1" s="1" t="inlineStr">
         <is>
           <t>liwc_focusfuture</t>
         </is>
       </c>
-      <c r="FG1" s="1" t="inlineStr">
+      <c r="FQ1" s="1" t="inlineStr">
         <is>
           <t>liwc_relativ</t>
         </is>
       </c>
-      <c r="FH1" s="1" t="inlineStr">
+      <c r="FR1" s="1" t="inlineStr">
         <is>
           <t>liwc_motion</t>
         </is>
       </c>
-      <c r="FI1" s="1" t="inlineStr">
+      <c r="FS1" s="1" t="inlineStr">
         <is>
           <t>liwc_space</t>
         </is>
       </c>
-      <c r="FJ1" s="1" t="inlineStr">
+      <c r="FT1" s="1" t="inlineStr">
         <is>
           <t>liwc_time</t>
         </is>
       </c>
-      <c r="FK1" s="1" t="inlineStr">
+      <c r="FU1" s="1" t="inlineStr">
         <is>
           <t>liwc_work</t>
         </is>
       </c>
-      <c r="FL1" s="1" t="inlineStr">
+      <c r="FV1" s="1" t="inlineStr">
         <is>
           <t>liwc_leisure</t>
         </is>
       </c>
-      <c r="FM1" s="1" t="inlineStr">
+      <c r="FW1" s="1" t="inlineStr">
         <is>
           <t>liwc_home</t>
         </is>
       </c>
-      <c r="FN1" s="1" t="inlineStr">
+      <c r="FX1" s="1" t="inlineStr">
         <is>
           <t>liwc_money</t>
         </is>
       </c>
-      <c r="FO1" s="1" t="inlineStr">
+      <c r="FY1" s="1" t="inlineStr">
         <is>
           <t>liwc_relig</t>
         </is>
       </c>
-      <c r="FP1" s="1" t="inlineStr">
+      <c r="FZ1" s="1" t="inlineStr">
         <is>
           <t>liwc_death</t>
         </is>
       </c>
-      <c r="FQ1" s="1" t="inlineStr">
+      <c r="GA1" s="1" t="inlineStr">
         <is>
           <t>liwc_informal</t>
         </is>
       </c>
-      <c r="FR1" s="1" t="inlineStr">
+      <c r="GB1" s="1" t="inlineStr">
         <is>
           <t>liwc_swear</t>
         </is>
       </c>
-      <c r="FS1" s="1" t="inlineStr">
+      <c r="GC1" s="1" t="inlineStr">
         <is>
           <t>liwc_netspeak</t>
         </is>
       </c>
-      <c r="FT1" s="1" t="inlineStr">
+      <c r="GD1" s="1" t="inlineStr">
         <is>
           <t>liwc_assent</t>
         </is>
       </c>
-      <c r="FU1" s="1" t="inlineStr">
+      <c r="GE1" s="1" t="inlineStr">
         <is>
           <t>liwc_nonflu</t>
         </is>
       </c>
-      <c r="FV1" s="1" t="inlineStr">
+      <c r="GF1" s="1" t="inlineStr">
         <is>
           <t>liwc_filler</t>
         </is>
       </c>
-      <c r="FW1" s="1" t="inlineStr">
+      <c r="GG1" s="1" t="inlineStr">
         <is>
           <t>liwc_AllPunc</t>
         </is>
       </c>
-      <c r="FX1" s="1" t="inlineStr">
+      <c r="GH1" s="1" t="inlineStr">
         <is>
           <t>liwc_Period</t>
         </is>
       </c>
-      <c r="FY1" s="1" t="inlineStr">
+      <c r="GI1" s="1" t="inlineStr">
         <is>
           <t>liwc_Comma</t>
         </is>
       </c>
-      <c r="FZ1" s="1" t="inlineStr">
+      <c r="GJ1" s="1" t="inlineStr">
         <is>
           <t>liwc_Colon</t>
         </is>
       </c>
-      <c r="GA1" s="1" t="inlineStr">
+      <c r="GK1" s="1" t="inlineStr">
         <is>
           <t>liwc_SemiC</t>
         </is>
       </c>
-      <c r="GB1" s="1" t="inlineStr">
+      <c r="GL1" s="1" t="inlineStr">
         <is>
           <t>liwc_QMark</t>
         </is>
       </c>
-      <c r="GC1" s="1" t="inlineStr">
+      <c r="GM1" s="1" t="inlineStr">
         <is>
           <t>liwc_Exclam</t>
         </is>
       </c>
-      <c r="GD1" s="1" t="inlineStr">
+      <c r="GN1" s="1" t="inlineStr">
         <is>
           <t>liwc_Dash</t>
         </is>
       </c>
-      <c r="GE1" s="1" t="inlineStr">
+      <c r="GO1" s="1" t="inlineStr">
         <is>
           <t>liwc_Quote</t>
         </is>
       </c>
-      <c r="GF1" s="1" t="inlineStr">
+      <c r="GP1" s="1" t="inlineStr">
         <is>
           <t>liwc_Apostro</t>
         </is>
       </c>
-      <c r="GG1" s="1" t="inlineStr">
+      <c r="GQ1" s="1" t="inlineStr">
         <is>
           <t>liwc_Parenth</t>
         </is>
       </c>
-      <c r="GH1" s="1" t="inlineStr">
+      <c r="GR1" s="1" t="inlineStr">
         <is>
           <t>liwc_OtherP</t>
         </is>
       </c>
-      <c r="GI1" s="1" t="inlineStr">
+      <c r="GS1" s="1" t="inlineStr">
         <is>
           <t>topic_nr</t>
         </is>
       </c>
-      <c r="GJ1" s="1" t="inlineStr">
+      <c r="GT1" s="1" t="inlineStr">
         <is>
           <t>reactions_YTA</t>
         </is>
       </c>
-      <c r="GK1" s="1" t="inlineStr">
+      <c r="GU1" s="1" t="inlineStr">
         <is>
           <t>reactions_NTA</t>
         </is>
       </c>
-      <c r="GL1" s="1" t="inlineStr">
+      <c r="GV1" s="1" t="inlineStr">
         <is>
           <t>reactions_INFO</t>
         </is>
       </c>
-      <c r="GM1" s="1" t="inlineStr">
+      <c r="GW1" s="1" t="inlineStr">
         <is>
           <t>reactions_ESH</t>
         </is>
       </c>
-      <c r="GN1" s="1" t="inlineStr">
+      <c r="GX1" s="1" t="inlineStr">
         <is>
           <t>reactions_NAH</t>
-        </is>
-      </c>
-      <c r="GO1" s="1" t="inlineStr">
-        <is>
-          <t>reactions_weighted_YTA</t>
-        </is>
-      </c>
-      <c r="GP1" s="1" t="inlineStr">
-        <is>
-          <t>reactions_weighted_NTA</t>
-        </is>
-      </c>
-      <c r="GQ1" s="1" t="inlineStr">
-        <is>
-          <t>reactions_weighted_INFO</t>
-        </is>
-      </c>
-      <c r="GR1" s="1" t="inlineStr">
-        <is>
-          <t>reactions_weighted_ESH</t>
-        </is>
-      </c>
-      <c r="GS1" s="1" t="inlineStr">
-        <is>
-          <t>reactions_weighted_NAH</t>
-        </is>
-      </c>
-      <c r="GT1" s="1" t="inlineStr">
-        <is>
-          <t>reactions_weighted_YTA_neg_vals</t>
-        </is>
-      </c>
-      <c r="GU1" s="1" t="inlineStr">
-        <is>
-          <t>reactions_weighted_NAH_neg_vals</t>
-        </is>
-      </c>
-      <c r="GV1" s="1" t="inlineStr">
-        <is>
-          <t>reactions_weighted_ESH_neg_vals</t>
-        </is>
-      </c>
-      <c r="GW1" s="1" t="inlineStr">
-        <is>
-          <t>reactions_weighted_NTA_neg_vals</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>67485</v>
+        <v>173147</v>
       </c>
       <c r="B2" t="n">
+        <v>652</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>9</v>
+      </c>
+      <c r="G2" t="n">
         <v>-1</v>
       </c>
-      <c r="C2" t="n">
+      <c r="H2" t="n">
+        <v>-3</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>-5</v>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>cjudzm</t>
+        </is>
+      </c>
+      <c r="M2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>2</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.0017301039</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.0069204154</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.0051903115</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.008650519000000001</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0.0017301039</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0.0034602077</v>
-      </c>
       <c r="O2" t="n">
-        <v>0.0017301039</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0.0051903115</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>2</v>
       </c>
       <c r="R2" t="n">
+        <v>0.0017301039</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.0069204154</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.0051903115</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.008650519000000001</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.0017301039</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0.0034602077</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0.0017301039</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0.0051903115</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC2" t="n">
         <v>0.061418686</v>
       </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
+      <c r="AD2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE2" t="n">
         <v>0.12283737</v>
       </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>cjudzm</t>
-        </is>
-      </c>
-      <c r="X2" t="n">
+      <c r="AF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH2" t="n">
         <v>0.8888889</v>
       </c>
-      <c r="Y2" t="n">
+      <c r="AI2" t="n">
         <v>0.11111111</v>
       </c>
-      <c r="Z2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA2" t="n">
+      <c r="AJ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK2" t="n">
         <v>0.7777778</v>
       </c>
-      <c r="AB2" t="n">
+      <c r="AL2" t="n">
         <v>0.22222222</v>
       </c>
-      <c r="AC2" t="n">
+      <c r="AM2" t="n">
         <v>0.19041666</v>
       </c>
-      <c r="AD2" t="n">
+      <c r="AN2" t="n">
         <v>0.60833335</v>
       </c>
-      <c r="AE2" t="n">
+      <c r="AO2" t="n">
         <v>0.018018018</v>
       </c>
-      <c r="AF2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG2" t="n">
+      <c r="AP2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ2" t="n">
         <v>0.117117114</v>
       </c>
-      <c r="AH2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ2" t="n">
+      <c r="AR2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT2" t="n">
         <v>0.009009009</v>
       </c>
-      <c r="AK2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM2" t="n">
+      <c r="AU2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW2" t="n">
         <v>0.018018018</v>
       </c>
-      <c r="AN2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ2" t="n">
+      <c r="AX2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA2" t="n">
         <v>0.045045044</v>
       </c>
-      <c r="AR2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS2" t="n">
+      <c r="BB2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC2" t="n">
         <v>0.009009009</v>
       </c>
-      <c r="AT2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC2" t="n">
-        <v>0</v>
-      </c>
       <c r="BD2" t="n">
         <v>0</v>
       </c>
@@ -1639,74 +1644,74 @@
         <v>0</v>
       </c>
       <c r="BI2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS2" t="n">
         <v>0.027027028</v>
       </c>
-      <c r="BJ2" t="n">
+      <c r="BT2" t="n">
         <v>0.018018018</v>
       </c>
-      <c r="BK2" t="n">
+      <c r="BU2" t="n">
         <v>0.009009009</v>
       </c>
-      <c r="BL2" t="n">
+      <c r="BV2" t="n">
         <v>0.009009009</v>
       </c>
-      <c r="BM2" t="n">
+      <c r="BW2" t="n">
         <v>0.009009009</v>
       </c>
-      <c r="BN2" t="n">
+      <c r="BX2" t="n">
         <v>0.009009009</v>
       </c>
-      <c r="BO2" t="n">
+      <c r="BY2" t="n">
         <v>0.009009009</v>
       </c>
-      <c r="BP2" t="n">
+      <c r="BZ2" t="n">
         <v>0.009009009</v>
       </c>
-      <c r="BQ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS2" t="n">
+      <c r="CA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC2" t="n">
         <v>98</v>
       </c>
-      <c r="BT2" t="n">
+      <c r="CD2" t="n">
         <v>10.89</v>
       </c>
-      <c r="BU2" t="n">
+      <c r="CE2" t="n">
         <v>10.2</v>
       </c>
-      <c r="BV2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE2" t="n">
-        <v>0</v>
-      </c>
       <c r="CF2" t="n">
         <v>0</v>
       </c>
@@ -1714,278 +1719,278 @@
         <v>0</v>
       </c>
       <c r="CH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR2" t="n">
         <v>23.47</v>
       </c>
-      <c r="CI2" t="n">
+      <c r="CS2" t="n">
         <v>19.39</v>
       </c>
-      <c r="CJ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM2" t="n">
+      <c r="CT2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW2" t="n">
         <v>1.02</v>
       </c>
-      <c r="CN2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ2" t="n">
+      <c r="CX2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA2" t="n">
         <v>3.06</v>
       </c>
-      <c r="CR2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CS2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CT2" t="n">
+      <c r="DB2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD2" t="n">
         <v>98</v>
       </c>
-      <c r="CU2" t="n">
+      <c r="DE2" t="n">
         <v>20.17</v>
       </c>
-      <c r="CV2" t="n">
+      <c r="DF2" t="n">
         <v>94.86</v>
       </c>
-      <c r="CW2" t="n">
+      <c r="DG2" t="n">
         <v>7.24</v>
       </c>
-      <c r="CX2" t="n">
+      <c r="DH2" t="n">
         <v>64.45999999999999</v>
       </c>
-      <c r="CY2" t="n">
+      <c r="DI2" t="n">
         <v>10.89</v>
       </c>
-      <c r="CZ2" t="n">
+      <c r="DJ2" t="n">
         <v>10.2</v>
       </c>
-      <c r="DA2" t="n">
+      <c r="DK2" t="n">
         <v>92.86</v>
       </c>
-      <c r="DB2" t="n">
+      <c r="DL2" t="n">
         <v>59.18</v>
       </c>
-      <c r="DC2" t="n">
+      <c r="DM2" t="n">
         <v>25.51</v>
       </c>
-      <c r="DD2" t="n">
+      <c r="DN2" t="n">
         <v>23.47</v>
       </c>
-      <c r="DE2" t="n">
+      <c r="DO2" t="n">
         <v>6.12</v>
       </c>
-      <c r="DF2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DG2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DH2" t="n">
+      <c r="DP2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DR2" t="n">
         <v>16.33</v>
       </c>
-      <c r="DI2" t="n">
+      <c r="DS2" t="n">
         <v>1.02</v>
       </c>
-      <c r="DJ2" t="n">
+      <c r="DT2" t="n">
         <v>2.04</v>
       </c>
-      <c r="DK2" t="n">
+      <c r="DU2" t="n">
         <v>7.14</v>
       </c>
-      <c r="DL2" t="n">
+      <c r="DV2" t="n">
         <v>9.18</v>
       </c>
-      <c r="DM2" t="n">
+      <c r="DW2" t="n">
         <v>9.18</v>
       </c>
-      <c r="DN2" t="n">
+      <c r="DX2" t="n">
         <v>5.1</v>
       </c>
-      <c r="DO2" t="n">
+      <c r="DY2" t="n">
         <v>7.14</v>
       </c>
-      <c r="DP2" t="n">
+      <c r="DZ2" t="n">
         <v>2.04</v>
       </c>
-      <c r="DQ2" t="n">
+      <c r="EA2" t="n">
         <v>19.39</v>
       </c>
-      <c r="DR2" t="n">
+      <c r="EB2" t="n">
         <v>4.08</v>
       </c>
-      <c r="DS2" t="n">
+      <c r="EC2" t="n">
         <v>4.08</v>
       </c>
-      <c r="DT2" t="n">
+      <c r="ED2" t="n">
         <v>3.06</v>
       </c>
-      <c r="DU2" t="n">
+      <c r="EE2" t="n">
         <v>5.1</v>
       </c>
-      <c r="DV2" t="n">
+      <c r="EF2" t="n">
         <v>2.04</v>
       </c>
-      <c r="DW2" t="n">
+      <c r="EG2" t="n">
         <v>2.04</v>
       </c>
-      <c r="DX2" t="n">
+      <c r="EH2" t="n">
         <v>2.04</v>
       </c>
-      <c r="DY2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DZ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EA2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EB2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EC2" t="n">
+      <c r="EI2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EK2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EL2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EM2" t="n">
         <v>27.55</v>
       </c>
-      <c r="ED2" t="n">
+      <c r="EN2" t="n">
         <v>6.12</v>
       </c>
-      <c r="EE2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EF2" t="n">
+      <c r="EO2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP2" t="n">
         <v>19.39</v>
       </c>
-      <c r="EG2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EH2" t="n">
+      <c r="EQ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER2" t="n">
         <v>10.2</v>
       </c>
-      <c r="EI2" t="n">
+      <c r="ES2" t="n">
         <v>3.06</v>
       </c>
-      <c r="EJ2" t="n">
+      <c r="ET2" t="n">
         <v>2.04</v>
       </c>
-      <c r="EK2" t="n">
+      <c r="EU2" t="n">
         <v>2.04</v>
       </c>
-      <c r="EL2" t="n">
+      <c r="EV2" t="n">
         <v>1.02</v>
       </c>
-      <c r="EM2" t="n">
+      <c r="EW2" t="n">
         <v>1.02</v>
       </c>
-      <c r="EN2" t="n">
+      <c r="EX2" t="n">
         <v>3.06</v>
       </c>
-      <c r="EO2" t="n">
+      <c r="EY2" t="n">
         <v>1.02</v>
       </c>
-      <c r="EP2" t="n">
+      <c r="EZ2" t="n">
         <v>1.02</v>
       </c>
-      <c r="EQ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="ER2" t="n">
-        <v>0</v>
-      </c>
-      <c r="ES2" t="n">
-        <v>0</v>
-      </c>
-      <c r="ET2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EU2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EV2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EW2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EX2" t="n">
+      <c r="FA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH2" t="n">
         <v>5.1</v>
       </c>
-      <c r="EY2" t="n">
+      <c r="FI2" t="n">
         <v>3.06</v>
       </c>
-      <c r="EZ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FA2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FB2" t="n">
+      <c r="FJ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FK2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FL2" t="n">
         <v>2.04</v>
       </c>
-      <c r="FC2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FD2" t="n">
+      <c r="FM2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN2" t="n">
         <v>14.29</v>
       </c>
-      <c r="FE2" t="n">
+      <c r="FO2" t="n">
         <v>3.06</v>
       </c>
-      <c r="FF2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FG2" t="n">
+      <c r="FP2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ2" t="n">
         <v>18.37</v>
       </c>
-      <c r="FH2" t="n">
+      <c r="FR2" t="n">
         <v>1.02</v>
       </c>
-      <c r="FI2" t="n">
+      <c r="FS2" t="n">
         <v>9.18</v>
       </c>
-      <c r="FJ2" t="n">
+      <c r="FT2" t="n">
         <v>9.18</v>
       </c>
-      <c r="FK2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FT2" t="n">
-        <v>0</v>
-      </c>
       <c r="FU2" t="n">
         <v>0</v>
       </c>
@@ -1993,85 +1998,88 @@
         <v>0</v>
       </c>
       <c r="FW2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FX2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FY2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FZ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GB2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GD2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GE2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG2" t="n">
         <v>23.47</v>
       </c>
-      <c r="FX2" t="n">
+      <c r="GH2" t="n">
         <v>19.39</v>
       </c>
-      <c r="FY2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GA2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GB2" t="n">
+      <c r="GI2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GJ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GK2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GL2" t="n">
         <v>1.02</v>
       </c>
-      <c r="GC2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GD2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GE2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GF2" t="n">
+      <c r="GM2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GN2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GO2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GP2" t="n">
         <v>3.06</v>
       </c>
-      <c r="GG2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GH2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GI2" t="n">
+      <c r="GQ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GR2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS2" t="n">
         <v>-1</v>
       </c>
-      <c r="GJ2" t="n">
+      <c r="GT2" t="n">
         <v>20</v>
       </c>
-      <c r="GK2" t="n">
+      <c r="GU2" t="n">
         <v>2</v>
       </c>
-      <c r="GL2" t="n">
+      <c r="GV2" t="n">
         <v>1</v>
       </c>
-      <c r="GM2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GN2" t="n">
+      <c r="GW2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX2" t="n">
         <v>4</v>
-      </c>
-      <c r="GO2" t="n">
-        <v>651</v>
-      </c>
-      <c r="GP2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ2" t="n">
-        <v>5</v>
-      </c>
-      <c r="GR2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GS2" t="n">
-        <v>4</v>
-      </c>
-      <c r="GT2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW2" t="n">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
